--- a/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0764CB-0D4B-49E7-8987-57F6550F9E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2135252C-6826-4C87-9BB4-27799D730C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="3860" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -953,7 +953,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1396,7 +1396,7 @@
         <v>58</v>
       </c>
       <c r="F20" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1442,7 +1442,7 @@
         <v>33</v>
       </c>
       <c r="F22" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1464,7 +1464,7 @@
         <v>36</v>
       </c>
       <c r="F23" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1552,7 +1552,7 @@
         <v>63</v>
       </c>
       <c r="F27" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="11" t="str">
         <f t="shared" ref="G27:G28" si="2">IF(OR(AND(F27&gt;1,F27&lt;&gt;"-")),"Can exchange","")</f>
@@ -1574,7 +1574,7 @@
         <v>64</v>
       </c>
       <c r="F28" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1596,7 +1596,7 @@
         <v>58</v>
       </c>
       <c r="F29" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="11" t="str">
         <f t="shared" ref="G29" si="3">IF(OR(AND(F29&gt;1,F29&lt;&gt;"-")),"Can exchange","")</f>
@@ -1618,7 +1618,7 @@
         <v>58</v>
       </c>
       <c r="F30" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="11" t="str">
         <f t="shared" ref="G30:G32" si="4">IF(OR(AND(F30&gt;1,F30&lt;&gt;"-")),"Can exchange","")</f>
@@ -1640,7 +1640,7 @@
         <v>68</v>
       </c>
       <c r="F31" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="11" t="str">
         <f t="shared" si="4"/>
@@ -1662,7 +1662,7 @@
         <v>70</v>
       </c>
       <c r="F32" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="11" t="str">
         <f t="shared" si="4"/>
@@ -1684,7 +1684,7 @@
         <v>68</v>
       </c>
       <c r="F33" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="11" t="str">
         <f t="shared" ref="G33:G34" si="5">IF(OR(AND(F33&gt;1,F33&lt;&gt;"-")),"Can exchange","")</f>
@@ -1706,7 +1706,7 @@
         <v>73</v>
       </c>
       <c r="F34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="11" t="str">
         <f t="shared" si="5"/>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2135252C-6826-4C87-9BB4-27799D730C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C446C5-F2A1-459D-A333-C49672AF0B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24740" yWindow="2210" windowWidth="26900" windowHeight="16750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -372,6 +372,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="8">
@@ -502,7 +509,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -574,6 +581,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -582,15 +592,6 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -655,6 +656,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -676,9 +686,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="9" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -953,7 +963,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1077,20 +1087,20 @@
         <v>2009</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
       </c>
       <c r="G6" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(F6&gt;1,F6&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1099,20 +1109,20 @@
         <v>2009</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F7" s="10">
         <v>1</v>
       </c>
       <c r="G7" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(F7&gt;1,F7&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1166,7 +1176,7 @@
         <v>2012</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>23</v>
@@ -1176,10 +1186,10 @@
         <v>33</v>
       </c>
       <c r="F10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(F10&gt;1,F10&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1188,7 +1198,7 @@
         <v>2012</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>23</v>
@@ -1198,10 +1208,10 @@
         <v>33</v>
       </c>
       <c r="F11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(F11&gt;1,F11&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1232,7 +1242,7 @@
         <v>2014</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>23</v>
@@ -1242,10 +1252,10 @@
         <v>34</v>
       </c>
       <c r="F13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(F13&gt;1,F13&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1254,7 +1264,7 @@
         <v>2014</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>23</v>
@@ -1264,10 +1274,10 @@
         <v>34</v>
       </c>
       <c r="F14" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(AND(F14&gt;1,F14&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1329,7 +1339,7 @@
       <c r="E17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="28">
         <v>1</v>
       </c>
       <c r="G17" s="11" t="str">
@@ -1342,20 +1352,20 @@
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="11" t="str">
-        <f t="shared" ref="G18:G26" si="1">IF(OR(AND(F18&gt;1,F18&lt;&gt;"-")),"Can exchange","")</f>
+        <f>IF(OR(AND(F18&gt;1,F18&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1364,20 +1374,20 @@
         <v>2016</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(AND(F19&gt;1,F19&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1399,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G20:G26" si="1">IF(OR(AND(F20&gt;1,F20&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1719,12 +1729,12 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F20 F22:F26">
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F22:F26 F3:F20">
+    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F20 F22:F26">
+  <conditionalFormatting sqref="F22:F26 F3:F20">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1737,7 +1747,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1754,7 +1764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1771,7 +1781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1788,7 +1798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1805,7 +1815,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1822,11 +1832,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31 F33">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33 F31">
+  <conditionalFormatting sqref="F31 F33">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1839,11 +1849,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32 F34">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34 F32">
+  <conditionalFormatting sqref="F32 F34">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1866,7 +1876,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C446C5-F2A1-459D-A333-C49672AF0B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBE2D25-C386-47E2-BD9B-30E23B49994D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24740" yWindow="2210" windowWidth="26900" windowHeight="16750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
+    <author>Lord_Alexator</author>
   </authors>
   <commentList>
     <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -69,6 +70,20 @@
           </rPr>
           <t>Imprensa Nacional-Casa da Moeda
 (Portuguese mint (Lissabon))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="1" shapeId="0" xr:uid="{74FFA274-4BE7-4EA6-AEF8-6762052664F7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Дубль не UNC</t>
         </r>
       </text>
     </comment>
@@ -374,11 +389,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -509,7 +524,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -581,9 +596,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -592,6 +604,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -656,15 +677,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -686,9 +698,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="9" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -963,7 +975,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34:XFD34"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1052,11 +1064,11 @@
         <v>29</v>
       </c>
       <c r="F4" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="11" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1186,7 +1198,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="11" t="str">
         <f>IF(OR(AND(F10&gt;1,F10&lt;&gt;"-")),"Can exchange","")</f>
@@ -1339,12 +1351,12 @@
       <c r="E17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="28">
-        <v>1</v>
+      <c r="F17" s="10">
+        <v>2</v>
       </c>
       <c r="G17" s="11" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1730,7 +1742,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F26 F3:F20">
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1747,7 +1759,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1764,7 +1776,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1781,7 +1793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1798,7 +1810,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1815,7 +1827,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1832,11 +1844,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31 F33">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31 F33">
+  <conditionalFormatting sqref="F33 F31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1849,11 +1861,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32 F34">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32 F34">
+  <conditionalFormatting sqref="F34 F32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBE2D25-C386-47E2-BD9B-30E23B49994D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3DC763-A6C0-46D7-9E60-6170AC934B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author>Lord_Alexator</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="1" shapeId="0" xr:uid="{74FFA274-4BE7-4EA6-AEF8-6762052664F7}">
+    <comment ref="H17" authorId="1" shapeId="0" xr:uid="{74FFA274-4BE7-4EA6-AEF8-6762052664F7}">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Дубль не UNC</t>
         </r>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
   <si>
     <t>Year</t>
   </si>
@@ -106,12 +107,6 @@
     <t>2€</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -317,13 +312,49 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>50th Anniversary - Revolution of 25 April 1974</t>
+  </si>
+  <si>
+    <t>Team Portugal at the Olympic Games 2024</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Subtype_4</t>
+  </si>
+  <si>
+    <t>Obv: Without mint symbol</t>
+  </si>
+  <si>
+    <t>Treaty of Rome</t>
+  </si>
+  <si>
+    <t>10 Years of EMU</t>
+  </si>
+  <si>
+    <t>10th Anniversary - Euro Coins and Banknotes</t>
+  </si>
+  <si>
+    <t>European Union flag</t>
+  </si>
+  <si>
+    <t>Erasmus Programme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -387,13 +418,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -472,28 +496,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -518,13 +520,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -547,7 +573,7 @@
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -585,16 +611,19 @@
     <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,7 +632,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -612,6 +641,22 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -969,769 +1014,966 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
     <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="6" width="24.08984375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="27"/>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>27</v>
+        <v>76</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>2007</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="10">
+        <v>37</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="10">
         <v>0</v>
       </c>
-      <c r="G3" s="11" t="str">
-        <f t="shared" ref="G3:G17" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="11" t="str">
+        <f t="shared" ref="I3:I17" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>2007</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="10">
+        <v>5</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="G4" s="11" t="str">
+      <c r="I4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>2008</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="10">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="10">
         <v>1</v>
       </c>
-      <c r="G5" s="11" t="str">
+      <c r="I5" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>2009</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="10">
+        <v>6</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="G6" s="11" t="str">
-        <f>IF(OR(AND(F6&gt;1,F6&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="11" t="str">
+        <f>IF(OR(AND(H6&gt;1,H6&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>2009</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="10">
+        <v>39</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="10">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="str">
-        <f>IF(OR(AND(F7&gt;1,F7&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I7" s="11" t="str">
+        <f>IF(OR(AND(H7&gt;1,H7&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>2010</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="10">
+        <v>40</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="10">
         <v>0</v>
       </c>
-      <c r="G8" s="11" t="str">
+      <c r="I8" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>2011</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="10">
+        <v>41</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="11" t="str">
+      <c r="I9" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>2012</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="10">
+        <v>82</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="10">
         <v>1</v>
       </c>
-      <c r="G10" s="11" t="str">
-        <f>IF(OR(AND(F10&gt;1,F10&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I10" s="11" t="str">
+        <f>IF(OR(AND(H10&gt;1,H10&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>2012</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="10">
+        <v>42</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="10">
         <v>1</v>
       </c>
-      <c r="G11" s="11" t="str">
-        <f>IF(OR(AND(F11&gt;1,F11&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I11" s="11" t="str">
+        <f>IF(OR(AND(H11&gt;1,H11&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>2013</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="10">
+        <v>43</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="10">
         <v>0</v>
       </c>
-      <c r="G12" s="11" t="str">
+      <c r="I12" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>2014</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="10">
+        <v>45</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="10">
         <v>1</v>
       </c>
-      <c r="G13" s="11" t="str">
-        <f>IF(OR(AND(F13&gt;1,F13&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I13" s="11" t="str">
+        <f>IF(OR(AND(H13&gt;1,H13&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <v>2014</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="10">
+        <v>44</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="11" t="str">
-        <f>IF(OR(AND(F14&gt;1,F14&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I14" s="11" t="str">
+        <f>IF(OR(AND(H14&gt;1,H14&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <v>2015</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="10">
+        <v>46</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="10">
         <v>0</v>
       </c>
-      <c r="G15" s="11" t="str">
+      <c r="I15" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22">
         <v>2015</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="10">
+        <v>47</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="10">
         <v>0</v>
       </c>
-      <c r="G16" s="11" t="str">
+      <c r="I16" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="22">
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="10">
+        <v>8</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="10">
         <v>2</v>
       </c>
-      <c r="G17" s="11" t="str">
+      <c r="I17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="10">
+        <v>49</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="10">
         <v>1</v>
       </c>
-      <c r="G18" s="11" t="str">
-        <f>IF(OR(AND(F18&gt;1,F18&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="11" t="str">
+        <f>IF(OR(AND(H18&gt;1,H18&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <v>2016</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="10">
+        <v>48</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="10">
         <v>0</v>
       </c>
-      <c r="G19" s="11" t="str">
-        <f>IF(OR(AND(F19&gt;1,F19&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I19" s="11" t="str">
+        <f>IF(OR(AND(H19&gt;1,H19&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <v>2017</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="10">
+        <v>50</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="10">
         <v>1</v>
       </c>
-      <c r="G20" s="11" t="str">
-        <f t="shared" ref="G20:G26" si="1">IF(OR(AND(F20&gt;1,F20&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="11" t="str">
+        <f t="shared" ref="I20:I26" si="1">IF(OR(AND(H20&gt;1,H20&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22">
         <v>2017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="11" t="str">
+        <v>50</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22">
         <v>2017</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="10">
+        <v>51</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="10">
         <v>1</v>
       </c>
-      <c r="G22" s="11" t="str">
+      <c r="I22" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22">
         <v>2018</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="10">
+        <v>52</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="10">
         <v>1</v>
       </c>
-      <c r="G23" s="11" t="str">
+      <c r="I23" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22">
         <v>2018</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="10">
+        <v>53</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="10">
         <v>1</v>
       </c>
-      <c r="G24" s="11" t="str">
+      <c r="I24" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22">
         <v>2019</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="10">
+        <v>54</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="10">
         <v>1</v>
       </c>
-      <c r="G25" s="11" t="str">
+      <c r="I25" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="22">
         <v>2019</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="10">
+        <v>55</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="10">
         <v>1</v>
       </c>
-      <c r="G26" s="11" t="str">
+      <c r="I26" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="22">
         <v>2020</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="10">
+        <v>60</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="10">
         <v>1</v>
       </c>
-      <c r="G27" s="11" t="str">
-        <f t="shared" ref="G27:G28" si="2">IF(OR(AND(F27&gt;1,F27&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="11" t="str">
+        <f t="shared" ref="I27:I28" si="2">IF(OR(AND(H27&gt;1,H27&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="22">
         <v>2020</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="10">
+        <v>59</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="10">
         <v>1</v>
       </c>
-      <c r="G28" s="11" t="str">
+      <c r="I28" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="22">
         <v>2021</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="10">
+        <v>63</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="10">
         <v>1</v>
       </c>
-      <c r="G29" s="11" t="str">
-        <f t="shared" ref="G29" si="3">IF(OR(AND(F29&gt;1,F29&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="11" t="str">
+        <f t="shared" ref="I29" si="3">IF(OR(AND(H29&gt;1,H29&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="22">
         <v>2021</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="10">
+        <v>64</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="10">
         <v>1</v>
       </c>
-      <c r="G30" s="11" t="str">
-        <f t="shared" ref="G30:G32" si="4">IF(OR(AND(F30&gt;1,F30&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I30" s="11" t="str">
+        <f t="shared" ref="I30:I32" si="4">IF(OR(AND(H30&gt;1,H30&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="22">
         <v>2022</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="10">
+        <v>65</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="10">
         <v>1</v>
       </c>
-      <c r="G31" s="11" t="str">
+      <c r="I31" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="22">
         <v>2022</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="10">
+        <v>67</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="10">
         <v>1</v>
       </c>
-      <c r="G32" s="11" t="str">
+      <c r="I32" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="22">
         <v>2023</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="10">
+        <v>69</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="10">
         <v>1</v>
       </c>
-      <c r="G33" s="11" t="str">
-        <f t="shared" ref="G33:G34" si="5">IF(OR(AND(F33&gt;1,F33&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I33" s="11" t="str">
+        <f t="shared" ref="I33:I34" si="5">IF(OR(AND(H33&gt;1,H33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="22">
         <v>2023</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1</v>
+      </c>
+      <c r="I34" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="22">
+        <v>2024</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="10">
-        <v>1</v>
-      </c>
-      <c r="G34" s="11" t="str">
-        <f t="shared" si="5"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11" t="str">
+        <f t="shared" ref="I35:I36" si="6">IF(OR(AND(H35&gt;1,H35&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="22">
+        <v>2024</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -1739,14 +1981,31 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F22:F26 F3:F20">
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+  <conditionalFormatting sqref="H22:H26 H3:H20">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F26 F3:F20">
+  <conditionalFormatting sqref="H22:H26 H3:H20">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1758,12 +2017,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F21))))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1775,12 +2051,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="H29">
     <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F27))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1792,12 +2068,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="H30">
     <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F28))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="H30">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1809,29 +2085,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F29))))</formula>
+  <conditionalFormatting sqref="H31 H33">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="H33 H31">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1843,12 +2102,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31 F33">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F31))))</formula>
+  <conditionalFormatting sqref="H32 H34">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33 F31">
+  <conditionalFormatting sqref="H32 H34">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1860,12 +2136,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32 F34">
+  <conditionalFormatting sqref="H36">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F32))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34 F32">
+  <conditionalFormatting sqref="H36">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1888,7 +2164,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1900,13 +2176,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1914,10 +2190,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1925,10 +2201,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1936,10 +2212,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1947,10 +2223,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1958,10 +2234,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1969,10 +2245,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3DC763-A6C0-46D7-9E60-6170AC934B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D362C0ED-70D1-46D4-855E-EE5EE8E025C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1020,7 +1020,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1392,7 +1392,7 @@
         <v>32</v>
       </c>
       <c r="H14" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="11" t="str">
         <f>IF(OR(AND(H14&gt;1,H14&lt;&gt;"-")),"Can exchange","")</f>
@@ -1418,7 +1418,7 @@
         <v>31</v>
       </c>
       <c r="H15" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1444,7 +1444,7 @@
         <v>31</v>
       </c>
       <c r="H16" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1524,7 +1524,7 @@
         <v>33</v>
       </c>
       <c r="H19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="11" t="str">
         <f>IF(OR(AND(H19&gt;1,H19&lt;&gt;"-")),"Can exchange","")</f>
@@ -2090,7 +2090,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H31">
+  <conditionalFormatting sqref="H31 H33">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2107,7 +2107,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32 H34">
+  <conditionalFormatting sqref="H34 H32">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D362C0ED-70D1-46D4-855E-EE5EE8E025C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493B3003-A4AB-4345-AD3A-CA54B18A2679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1020,7 +1020,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15:I15"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1098,7 +1098,7 @@
         <v>26</v>
       </c>
       <c r="H3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11" t="str">
         <f t="shared" ref="I3:I17" si="0">IF(OR(AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
@@ -1233,7 +1233,7 @@
         <v>30</v>
       </c>
       <c r="H8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1259,7 +1259,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1340,7 +1340,7 @@
         <v>32</v>
       </c>
       <c r="H12" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2090,7 +2090,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31 H33">
+  <conditionalFormatting sqref="H33 H31">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2107,7 +2107,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34 H32">
+  <conditionalFormatting sqref="H32 H34">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493B3003-A4AB-4345-AD3A-CA54B18A2679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7572568C-C425-4443-B79E-8393E5DD86D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1020,7 +1020,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1944,7 +1944,7 @@
         <v>71</v>
       </c>
       <c r="H35" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="11" t="str">
         <f t="shared" ref="I35:I36" si="6">IF(OR(AND(H35&gt;1,H35&lt;&gt;"-")),"Can exchange","")</f>
@@ -2090,7 +2090,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H31">
+  <conditionalFormatting sqref="H31 H33">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2107,7 +2107,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32 H34">
+  <conditionalFormatting sqref="H34 H32">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7572568C-C425-4443-B79E-8393E5DD86D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82CA416-AD6E-4DAE-BFBA-DD35234BB0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1020,7 +1020,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1970,7 +1970,7 @@
         <v>31</v>
       </c>
       <c r="H36" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="11" t="str">
         <f t="shared" si="6"/>
@@ -2090,7 +2090,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31 H33">
+  <conditionalFormatting sqref="H33 H31">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2107,7 +2107,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34 H32">
+  <conditionalFormatting sqref="H32 H34">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82CA416-AD6E-4DAE-BFBA-DD35234BB0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9D5F42-5E9C-4FFB-A19E-3C9CB57BEC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -743,9 +759,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1014,13 +1030,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomRight" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1977,6 +1993,38 @@
         <v/>
       </c>
     </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="11" t="str">
+        <f t="shared" ref="I37:I38" si="7">IF(OR(AND(H37&gt;1,H37&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="22">
+        <v>2025</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -1984,11 +2032,28 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H22:H26 H3:H20">
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H26 H3:H20">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2000,12 +2065,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2017,12 +2099,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H29">
     <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2034,12 +2116,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H30">
     <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H30">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2051,29 +2133,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+  <conditionalFormatting sqref="H31 H33">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="H31 H33">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2085,12 +2150,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31 H33">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+  <conditionalFormatting sqref="H32 H34">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H31">
+  <conditionalFormatting sqref="H34 H32">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2102,12 +2184,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32 H34">
+  <conditionalFormatting sqref="H36">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32 H34">
+  <conditionalFormatting sqref="H36">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2119,12 +2201,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
+  <conditionalFormatting sqref="H37">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2136,12 +2218,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
+  <conditionalFormatting sqref="H38">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9D5F42-5E9C-4FFB-A19E-3C9CB57BEC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6454E394-72E1-4D40-AF6E-4F6A7DF29D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -323,15 +326,9 @@
     <t>Subtype_1#Series</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol</t>
-  </si>
-  <si>
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
-    <t>Subtype_4</t>
-  </si>
-  <si>
     <t>Obv: Without mint symbol</t>
   </si>
   <si>
@@ -348,6 +345,12 @@
   </si>
   <si>
     <t>Erasmus Programme</t>
+  </si>
+  <si>
+    <t>Subtype_4#Coloured</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -617,6 +620,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -634,6 +640,15 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -648,15 +663,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -759,9 +765,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1036,34 +1042,32 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K41" sqref="K41"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
-    <col min="3" max="6" width="24.08984375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="3.81640625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="12" customWidth="1"/>
+    <col min="3" max="6" width="33.6328125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" style="12" customWidth="1"/>
     <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1073,19 +1077,21 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="25" t="s">
+        <v>72</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>25</v>
@@ -1104,7 +1110,7 @@
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>20</v>
@@ -1129,10 +1135,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>20</v>
@@ -1158,7 +1164,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>21</v>
@@ -1184,10 +1190,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>21</v>
@@ -1213,7 +1219,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>21</v>
@@ -1239,7 +1245,7 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>21</v>
@@ -1265,7 +1271,7 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>21</v>
@@ -1288,13 +1294,13 @@
         <v>2012</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>21</v>
@@ -1320,7 +1326,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>21</v>
@@ -1346,7 +1352,7 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>21</v>
@@ -1372,7 +1378,7 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>21</v>
@@ -1398,7 +1404,7 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>21</v>
@@ -1424,7 +1430,7 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>21</v>
@@ -1450,7 +1456,7 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>21</v>
@@ -1475,10 +1481,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>21</v>
@@ -1504,7 +1510,7 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>21</v>
@@ -1530,7 +1536,7 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>21</v>
@@ -1556,7 +1562,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>21</v>
@@ -1582,7 +1588,7 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>21</v>
@@ -1610,7 +1616,7 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>21</v>
@@ -1636,7 +1642,7 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>21</v>
@@ -1662,7 +1668,7 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>21</v>
@@ -1688,7 +1694,7 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>21</v>
@@ -1714,7 +1720,7 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>21</v>
@@ -1740,7 +1746,7 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>21</v>
@@ -1766,7 +1772,7 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>21</v>
@@ -1792,7 +1798,7 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>21</v>
@@ -1818,7 +1824,7 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>21</v>
@@ -1844,7 +1850,7 @@
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>21</v>
@@ -1869,10 +1875,10 @@
         <v>67</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>21</v>
@@ -1898,7 +1904,7 @@
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E33" s="19" t="s">
         <v>21</v>
@@ -1924,7 +1930,7 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>21</v>
@@ -1950,7 +1956,7 @@
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>21</v>
@@ -1976,7 +1982,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>21</v>
@@ -2026,9 +2032,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:G2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H22:H26 H3:H20">
@@ -2138,7 +2144,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31 H33">
+  <conditionalFormatting sqref="H33 H31">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2155,7 +2161,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H34 H32">
+  <conditionalFormatting sqref="H32 H34">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2202,7 +2208,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2219,7 +2225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Portugal/#EURO#Portugal#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Portugal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6454E394-72E1-4D40-AF6E-4F6A7DF29D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B11747-8D77-4623-A1CF-5D5DCE2DF4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="87">
   <si>
     <t>Year</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>World Scouting and Youth Movements</t>
+  </si>
+  <si>
+    <t>Sustainable Development</t>
   </si>
 </sst>
 </file>
@@ -638,7 +644,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -765,9 +787,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1042,7 +1064,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2003,13 +2025,23 @@
       <c r="A37" s="22">
         <v>2025</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="C37" s="8"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="19"/>
+      <c r="D37" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="10"/>
+      <c r="G37" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="10">
+        <v>1</v>
+      </c>
       <c r="I37" s="11" t="str">
         <f t="shared" ref="I37:I38" si="7">IF(OR(AND(H37&gt;1,H37&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
@@ -2019,13 +2051,23 @@
       <c r="A38" s="22">
         <v>2025</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="C38" s="8"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="19"/>
+      <c r="D38" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="10"/>
+      <c r="G38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
       <c r="I38" s="11" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2038,11 +2080,28 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H22:H26 H3:H20">
-    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H26 H3:H20">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2054,12 +2113,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H21))))</formula>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
+  <conditionalFormatting sqref="H27">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2071,12 +2147,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H29">
     <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H27))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H29">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2088,12 +2164,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H30">
     <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H28))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
+  <conditionalFormatting sqref="H30">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2105,29 +2181,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H29))))</formula>
+  <conditionalFormatting sqref="H31 H33">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="H31 H33">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2139,12 +2198,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31 H33">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H31))))</formula>
+  <conditionalFormatting sqref="H32 H34">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33 H31">
+  <conditionalFormatting sqref="H34 H32">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2156,12 +2232,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32 H34">
+  <conditionalFormatting sqref="H36">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H32))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32 H34">
+  <conditionalFormatting sqref="H36">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2173,42 +2249,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2225,7 +2267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2252,7 +2294,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
